--- a/settings/zh-CN/template_glades.xlsx
+++ b/settings/zh-CN/template_glades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\projects\game_mod\against_storm\export_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\projects\game_mod\against_storm\export_analysis\settings\zh-CN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281C8961-9EC3-4696-92FC-5EBCA96F9D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00AD2B1-DE99-42F8-A8E6-AA7B415D4D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="263">
   <si>
     <t>表格说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1101,6 +1101,26 @@
   </si>
   <si>
     <t>https://github.com/Forwindzz/ATSUnpackToExcel</t>
+  </si>
+  <si>
+    <t>m0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新1.5版本内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新1.8版本内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱石峡谷和竹林平原用的是皇林的生成配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1549,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1584,13 +1604,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="C2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D2" s="10">
-        <v>45566</v>
+        <v>45871</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>103</v>
@@ -2644,6 +2664,9 @@
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>262</v>
+      </c>
       <c r="K101" s="5" t="s">
         <v>114</v>
       </c>
@@ -2768,7 +2791,7 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>254</v>
+        <v>85</v>
       </c>
       <c r="I112" s="5" t="s">
         <v>114</v>
@@ -2782,7 +2805,7 @@
     </row>
     <row r="113" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>255</v>
+        <v>86</v>
       </c>
       <c r="P113" s="1">
         <v>16</v>
@@ -2793,7 +2816,7 @@
     </row>
     <row r="114" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="H114" s="11" t="s">
         <v>107</v>
@@ -2804,7 +2827,7 @@
     </row>
     <row r="115" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="G115" t="s">
         <v>131</v>
@@ -2815,7 +2838,7 @@
     </row>
     <row r="116" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G116" t="s">
         <v>139</v>
@@ -2826,7 +2849,7 @@
     </row>
     <row r="117" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K117" s="5"/>
       <c r="L117" s="13" t="s">
@@ -2838,7 +2861,7 @@
     </row>
     <row r="118" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K118" s="5" t="s">
         <v>114</v>
@@ -2855,7 +2878,7 @@
     </row>
     <row r="119" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H119" s="13" t="s">
         <v>124</v>
@@ -2871,7 +2894,7 @@
     </row>
     <row r="120" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="I120" s="6"/>
       <c r="J120" s="13" t="s">
@@ -2892,7 +2915,7 @@
     </row>
     <row r="121" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="I121" s="6" t="s">
         <v>121</v>
@@ -2912,7 +2935,7 @@
     </row>
     <row r="122" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="G122" s="5"/>
       <c r="J122" s="4"/>
@@ -2927,7 +2950,7 @@
     </row>
     <row r="123" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>114</v>
@@ -2948,6 +2971,9 @@
       </c>
     </row>
     <row r="124" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>258</v>
+      </c>
       <c r="H124" s="6" t="s">
         <v>121</v>
       </c>
@@ -2961,6 +2987,9 @@
       </c>
     </row>
     <row r="125" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>259</v>
+      </c>
       <c r="N125" s="13" t="s">
         <v>124</v>
       </c>
@@ -2975,6 +3004,9 @@
       </c>
     </row>
     <row r="126" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>260</v>
+      </c>
       <c r="I126" s="13" t="s">
         <v>124</v>
       </c>
@@ -2994,6 +3026,9 @@
       </c>
     </row>
     <row r="127" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>261</v>
+      </c>
       <c r="G127" s="13" t="s">
         <v>130</v>
       </c>
